--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,53 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>87</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>67</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,53 +510,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65</v>
-      </c>
-      <c r="E2" t="n">
-        <v>76</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>87</v>
-      </c>
-      <c r="K2" t="n">
-        <v>35</v>
-      </c>
-      <c r="L2" t="n">
-        <v>45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>67</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,899 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>56</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>56</v>
+      </c>
+      <c r="K2" t="n">
+        <v>43</v>
+      </c>
+      <c r="L2" t="n">
+        <v>67</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76</v>
+      </c>
+      <c r="E3" t="n">
+        <v>76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>56</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>56</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>67</v>
+      </c>
+      <c r="M3" t="n">
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>56</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43</v>
+      </c>
+      <c r="L4" t="n">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76</v>
+      </c>
+      <c r="E5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>56</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43</v>
+      </c>
+      <c r="L5" t="n">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76</v>
+      </c>
+      <c r="E6" t="n">
+        <v>76</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>56</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L6" t="n">
+        <v>67</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>56</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>78</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>56</v>
+      </c>
+      <c r="K7" t="n">
+        <v>34</v>
+      </c>
+      <c r="L7" t="n">
+        <v>67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65</v>
+      </c>
+      <c r="E8" t="n">
+        <v>56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>56</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34</v>
+      </c>
+      <c r="L8" t="n">
+        <v>67</v>
+      </c>
+      <c r="M8" t="n">
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>78</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>87</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>78</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>78</v>
+      </c>
+      <c r="K9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L9" t="n">
+        <v>87</v>
+      </c>
+      <c r="M9" t="n">
+        <v>67</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>78</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>65</v>
+      </c>
+      <c r="E10" t="n">
+        <v>87</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>78</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>78</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45</v>
+      </c>
+      <c r="L10" t="n">
+        <v>87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>67</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>78</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65</v>
+      </c>
+      <c r="E11" t="n">
+        <v>87</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>87</v>
+      </c>
+      <c r="M11" t="n">
+        <v>67</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>78</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>65</v>
+      </c>
+      <c r="E12" t="n">
+        <v>87</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>78</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>78</v>
+      </c>
+      <c r="K12" t="n">
+        <v>45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>87</v>
+      </c>
+      <c r="M12" t="n">
+        <v>67</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>78</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>65</v>
+      </c>
+      <c r="E13" t="n">
+        <v>87</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>78</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>78</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>87</v>
+      </c>
+      <c r="M13" t="n">
+        <v>67</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>78</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>65</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>78</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>78</v>
+      </c>
+      <c r="K14" t="n">
+        <v>45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>87</v>
+      </c>
+      <c r="M14" t="n">
+        <v>67</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>57</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>65</v>
+      </c>
+      <c r="M15" t="n">
+        <v>56</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65</v>
+      </c>
+      <c r="E16" t="n">
+        <v>65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>54</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>56</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>43</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>77</v>
+      </c>
+      <c r="E17" t="n">
+        <v>65</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>77</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>54</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34</v>
+      </c>
+      <c r="L17" t="n">
+        <v>76</v>
+      </c>
+      <c r="M17" t="n">
+        <v>67</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>77</v>
+      </c>
+      <c r="E18" t="n">
+        <v>65</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>77</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>54</v>
+      </c>
+      <c r="K18" t="n">
+        <v>34</v>
+      </c>
+      <c r="L18" t="n">
+        <v>76</v>
+      </c>
+      <c r="M18" t="n">
+        <v>67</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76</v>
+      </c>
+      <c r="E19" t="n">
+        <v>56</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>67</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>23</v>
+      </c>
+      <c r="L19" t="n">
+        <v>65</v>
+      </c>
+      <c r="M19" t="n">
+        <v>76</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76</v>
+      </c>
+      <c r="E20" t="n">
+        <v>56</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>67</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>23</v>
+      </c>
+      <c r="L20" t="n">
+        <v>65</v>
+      </c>
+      <c r="M20" t="n">
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,8 +506,95 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>age_glucose</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>age_BMI</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>glucose_BMI</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>heartRate_exang</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>chol_fbs</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>target</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>76</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>54</v>
+      </c>
+      <c r="K2" t="n">
+        <v>32</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>86</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3870</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2752</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/NewData.xlsx
+++ b/NewData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,95 +506,8 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>age_glucose</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>age_BMI</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>glucose_BMI</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>heartRate_exang</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>chol_fbs</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
           <t>target</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65</v>
-      </c>
-      <c r="E2" t="n">
-        <v>65</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>76</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
-        <v>45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>86</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3870</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1440</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2752</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
